--- a/doc/要件定義書/要件定義書.xlsx
+++ b/doc/要件定義書/要件定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A577FF7-85A5-48E7-BE2E-8F4A433C9F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B09FD-5C89-4754-AF7D-F76B8F587C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="780" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -134,55 +134,6 @@
   </si>
   <si>
     <t>赤井</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題区分</t>
-    <rPh sb="0" eb="4">
-      <t>カダイクブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題</t>
-  </si>
-  <si>
-    <t>指摘</t>
-  </si>
-  <si>
-    <t>仕様確認</t>
-  </si>
-  <si>
-    <t>バグ</t>
-  </si>
-  <si>
-    <t>要望</t>
-  </si>
-  <si>
-    <t>ケース区分</t>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正常系</t>
-    <rPh sb="0" eb="2">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>異常系</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1409,7 +1360,7 @@
     </row>
     <row r="24" spans="11:45" ht="16.95" customHeight="1">
       <c r="R24" s="27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
@@ -1431,7 +1382,7 @@
     </row>
     <row r="25" spans="11:45" ht="16.95" customHeight="1">
       <c r="R25" s="27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
@@ -1451,14 +1402,14 @@
     </row>
     <row r="26" spans="11:45" ht="16.95" customHeight="1">
       <c r="R26" s="27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S26" s="28"/>
       <c r="T26" s="28"/>
       <c r="U26" s="28"/>
       <c r="V26" s="29"/>
       <c r="W26" s="30" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
@@ -1473,7 +1424,7 @@
     </row>
     <row r="27" spans="11:45" ht="16.95" customHeight="1">
       <c r="R27" s="35" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
@@ -1493,7 +1444,7 @@
     </row>
     <row r="28" spans="11:45" ht="16.95" customHeight="1">
       <c r="R28" s="35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
@@ -1630,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3683C8-3128-4968-AB8A-2F0821F761DC}">
-  <dimension ref="A1:AW20"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
@@ -1645,7 +1596,7 @@
     <col min="17" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="27" customHeight="1">
+    <row r="1" spans="1:48" ht="27" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>【設定】!$F$2</f>
         <v>要件定義書</v>
@@ -1700,9 +1651,9 @@
       <c r="AM1" s="31"/>
       <c r="AN1" s="32"/>
     </row>
-    <row r="2" spans="1:49" ht="27" customHeight="1">
+    <row r="2" spans="1:48" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1756,30 +1707,30 @@
       <c r="AM2" s="31"/>
       <c r="AN2" s="32"/>
     </row>
-    <row r="3" spans="1:49" ht="18" customHeight="1"/>
-    <row r="4" spans="1:49" ht="18" customHeight="1"/>
-    <row r="5" spans="1:49" ht="18" customHeight="1"/>
-    <row r="6" spans="1:49" ht="18" customHeight="1">
+    <row r="3" spans="1:48" ht="18" customHeight="1"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1"/>
+    <row r="5" spans="1:48" ht="18" customHeight="1"/>
+    <row r="6" spans="1:48" ht="18" customHeight="1">
       <c r="C6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="29"/>
       <c r="J6" s="27" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="29"/>
       <c r="O6" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
@@ -1791,7 +1742,7 @@
       <c r="W6" s="28"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -1815,10 +1766,9 @@
       <c r="AS6" s="28"/>
       <c r="AT6" s="28"/>
       <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="29"/>
-    </row>
-    <row r="7" spans="1:49" ht="18" customHeight="1">
+      <c r="AV6" s="29"/>
+    </row>
+    <row r="7" spans="1:48" ht="18" customHeight="1">
       <c r="C7" s="42">
         <f t="shared" ref="C7:C18" si="0">ROW()-ROW($C$6)</f>
         <v>1</v>
@@ -1871,10 +1821,9 @@
       <c r="AS7" s="31"/>
       <c r="AT7" s="31"/>
       <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="32"/>
-    </row>
-    <row r="8" spans="1:49" ht="18" customHeight="1">
+      <c r="AV7" s="32"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" customHeight="1">
       <c r="C8" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1923,10 +1872,9 @@
       <c r="AS8" s="31"/>
       <c r="AT8" s="31"/>
       <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="32"/>
-    </row>
-    <row r="9" spans="1:49" ht="18" customHeight="1">
+      <c r="AV8" s="32"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" customHeight="1">
       <c r="C9" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1975,10 +1923,9 @@
       <c r="AS9" s="31"/>
       <c r="AT9" s="31"/>
       <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="32"/>
-    </row>
-    <row r="10" spans="1:49" ht="18" customHeight="1">
+      <c r="AV9" s="32"/>
+    </row>
+    <row r="10" spans="1:48" ht="18" customHeight="1">
       <c r="C10" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2027,10 +1974,9 @@
       <c r="AS10" s="31"/>
       <c r="AT10" s="31"/>
       <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="32"/>
-    </row>
-    <row r="11" spans="1:49" ht="18" customHeight="1">
+      <c r="AV10" s="32"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1">
       <c r="C11" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2079,10 +2025,9 @@
       <c r="AS11" s="31"/>
       <c r="AT11" s="31"/>
       <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="32"/>
-    </row>
-    <row r="12" spans="1:49" ht="18" customHeight="1">
+      <c r="AV11" s="32"/>
+    </row>
+    <row r="12" spans="1:48" ht="18" customHeight="1">
       <c r="C12" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2131,10 +2076,9 @@
       <c r="AS12" s="31"/>
       <c r="AT12" s="31"/>
       <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="32"/>
-    </row>
-    <row r="13" spans="1:49" ht="18" customHeight="1">
+      <c r="AV12" s="32"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" customHeight="1">
       <c r="C13" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2183,10 +2127,9 @@
       <c r="AS13" s="31"/>
       <c r="AT13" s="31"/>
       <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="32"/>
-    </row>
-    <row r="14" spans="1:49" ht="18" customHeight="1">
+      <c r="AV13" s="32"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1">
       <c r="C14" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2235,10 +2178,9 @@
       <c r="AS14" s="31"/>
       <c r="AT14" s="31"/>
       <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="32"/>
-    </row>
-    <row r="15" spans="1:49" ht="18" customHeight="1">
+      <c r="AV14" s="32"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1">
       <c r="C15" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2287,10 +2229,9 @@
       <c r="AS15" s="31"/>
       <c r="AT15" s="31"/>
       <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="32"/>
-    </row>
-    <row r="16" spans="1:49" ht="18" customHeight="1">
+      <c r="AV15" s="32"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" customHeight="1">
       <c r="C16" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2339,10 +2280,9 @@
       <c r="AS16" s="31"/>
       <c r="AT16" s="31"/>
       <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="32"/>
-    </row>
-    <row r="17" spans="3:49" ht="18" customHeight="1">
+      <c r="AV16" s="32"/>
+    </row>
+    <row r="17" spans="3:48" ht="18" customHeight="1">
       <c r="C17" s="42">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2391,10 +2331,9 @@
       <c r="AS17" s="31"/>
       <c r="AT17" s="31"/>
       <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="32"/>
-    </row>
-    <row r="18" spans="3:49" ht="18" customHeight="1">
+      <c r="AV17" s="32"/>
+    </row>
+    <row r="18" spans="3:48" ht="18" customHeight="1">
       <c r="C18" s="37">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2443,25 +2382,23 @@
       <c r="AS18" s="31"/>
       <c r="AT18" s="31"/>
       <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="32"/>
-    </row>
-    <row r="19" spans="3:49" ht="18" customHeight="1"/>
-    <row r="20" spans="3:49" ht="18" customHeight="1"/>
+      <c r="AV18" s="32"/>
+    </row>
+    <row r="19" spans="3:48" ht="18" customHeight="1"/>
+    <row r="20" spans="3:48" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="Y12:AV12"/>
+    <mergeCell ref="Y13:AV13"/>
+    <mergeCell ref="Y14:AV14"/>
+    <mergeCell ref="Y15:AV15"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="O12:X12"/>
-    <mergeCell ref="Y12:AW12"/>
     <mergeCell ref="O13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
     <mergeCell ref="O14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
     <mergeCell ref="O15:X15"/>
-    <mergeCell ref="Y15:AW15"/>
     <mergeCell ref="O16:X16"/>
-    <mergeCell ref="Y16:AW16"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:Y1"/>
@@ -2475,11 +2412,11 @@
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="O9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
     <mergeCell ref="O10:X10"/>
-    <mergeCell ref="Y10:AW10"/>
     <mergeCell ref="O11:X11"/>
-    <mergeCell ref="Y11:AW11"/>
+    <mergeCell ref="Y9:AV9"/>
+    <mergeCell ref="Y10:AV10"/>
+    <mergeCell ref="Y11:AV11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -2512,21 +2449,22 @@
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="O6:X6"/>
-    <mergeCell ref="Y6:AW6"/>
     <mergeCell ref="O7:X7"/>
-    <mergeCell ref="Y7:AW7"/>
     <mergeCell ref="O8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="Y6:AV6"/>
+    <mergeCell ref="Y7:AV7"/>
+    <mergeCell ref="Y8:AV8"/>
+    <mergeCell ref="Y16:AV16"/>
+    <mergeCell ref="Y17:AV17"/>
+    <mergeCell ref="Y18:AV18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:X18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="J17:N17"/>
     <mergeCell ref="O17:X17"/>
-    <mergeCell ref="Y17:AW17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:X18"/>
-    <mergeCell ref="Y18:AW18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,7 +2476,7 @@
           <x14:formula1>
             <xm:f>【設定】!$Z$2:$Z$16</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ2 J7:J18</xm:sqref>
+          <xm:sqref>AJ2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2620,7 +2558,7 @@
     </row>
     <row r="2" spans="1:40" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2799,7 +2737,7 @@
     </row>
     <row r="2" spans="1:47" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2858,13 +2796,13 @@
     <row r="5" spans="1:47" ht="18" customHeight="1"/>
     <row r="6" spans="1:47" ht="18" customHeight="1">
       <c r="C6" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
       <c r="F6" s="25"/>
       <c r="G6" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -2878,7 +2816,7 @@
       <c r="Q6" s="28"/>
       <c r="R6" s="29"/>
       <c r="T6" s="27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U6" s="28"/>
       <c r="V6" s="29"/>
@@ -2888,13 +2826,13 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AC6" s="28"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="25"/>
       <c r="AF6" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AG6" s="28"/>
       <c r="AH6" s="28"/>
@@ -2908,7 +2846,7 @@
       <c r="AP6" s="28"/>
       <c r="AQ6" s="29"/>
       <c r="AS6" s="27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AT6" s="28"/>
       <c r="AU6" s="29"/>
@@ -2920,7 +2858,7 @@
       <c r="D7" s="45"/>
       <c r="E7" s="46"/>
       <c r="G7" s="44" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -2944,7 +2882,7 @@
       <c r="AC7" s="45"/>
       <c r="AD7" s="46"/>
       <c r="AF7" s="44" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AG7" s="45"/>
       <c r="AH7" s="45"/>
@@ -2968,7 +2906,7 @@
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
       <c r="G8" s="44" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
@@ -2990,7 +2928,7 @@
       <c r="AC8" s="45"/>
       <c r="AD8" s="46"/>
       <c r="AF8" s="44" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AG8" s="45"/>
       <c r="AH8" s="45"/>
@@ -3027,12 +2965,12 @@
       <c r="U9" s="47"/>
       <c r="V9" s="38"/>
       <c r="AB9" s="44" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AC9" s="45"/>
       <c r="AD9" s="46"/>
       <c r="AF9" s="44" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
@@ -3056,7 +2994,7 @@
       <c r="D10" s="45"/>
       <c r="E10" s="46"/>
       <c r="G10" s="44" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
@@ -3073,12 +3011,12 @@
       <c r="U10" s="47"/>
       <c r="V10" s="38"/>
       <c r="AB10" s="44" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="AC10" s="45"/>
       <c r="AD10" s="46"/>
       <c r="AF10" s="44" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AG10" s="45"/>
       <c r="AH10" s="45"/>
@@ -3102,7 +3040,7 @@
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
       <c r="G11" s="44" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
@@ -3124,7 +3062,7 @@
       <c r="AC11" s="45"/>
       <c r="AD11" s="46"/>
       <c r="AF11" s="44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AG11" s="45"/>
       <c r="AH11" s="45"/>
@@ -3143,12 +3081,12 @@
     </row>
     <row r="12" spans="1:47">
       <c r="C12" s="44" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
       <c r="G12" s="44" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
@@ -3165,12 +3103,12 @@
       <c r="U12" s="47"/>
       <c r="V12" s="38"/>
       <c r="AB12" s="44" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AC12" s="45"/>
       <c r="AD12" s="46"/>
       <c r="AF12" s="44" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AG12" s="45"/>
       <c r="AH12" s="45"/>
@@ -3189,12 +3127,12 @@
     </row>
     <row r="13" spans="1:47">
       <c r="C13" s="44" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="46"/>
       <c r="G13" s="44" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
@@ -3211,12 +3149,12 @@
       <c r="U13" s="47"/>
       <c r="V13" s="38"/>
       <c r="AB13" s="44" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AC13" s="45"/>
       <c r="AD13" s="46"/>
       <c r="AF13" s="44" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AG13" s="45"/>
       <c r="AH13" s="45"/>
@@ -3235,12 +3173,12 @@
     </row>
     <row r="14" spans="1:47">
       <c r="C14" s="44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="46"/>
       <c r="G14" s="44" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
@@ -3277,12 +3215,12 @@
     </row>
     <row r="15" spans="1:47">
       <c r="C15" s="44" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="46"/>
       <c r="G15" s="44" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
@@ -3304,7 +3242,7 @@
       <c r="AC15" s="45"/>
       <c r="AD15" s="46"/>
       <c r="AF15" s="44" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG15" s="45"/>
       <c r="AH15" s="45"/>
@@ -3323,12 +3261,12 @@
     </row>
     <row r="16" spans="1:47">
       <c r="C16" s="44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="46"/>
       <c r="G16" s="44" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
@@ -3350,7 +3288,7 @@
       <c r="AC16" s="45"/>
       <c r="AD16" s="46"/>
       <c r="AF16" s="44" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AG16" s="45"/>
       <c r="AH16" s="45"/>
@@ -3369,12 +3307,12 @@
     </row>
     <row r="17" spans="3:47">
       <c r="C17" s="44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="46"/>
       <c r="G17" s="44" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
@@ -3396,7 +3334,7 @@
       <c r="AC17" s="45"/>
       <c r="AD17" s="46"/>
       <c r="AF17" s="44" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG17" s="45"/>
       <c r="AH17" s="45"/>
@@ -3458,7 +3396,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="G19" s="21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -3480,7 +3418,7 @@
       <c r="AC19" s="45"/>
       <c r="AD19" s="46"/>
       <c r="AF19" s="44" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG19" s="45"/>
       <c r="AH19" s="45"/>
@@ -3504,7 +3442,7 @@
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="G20" s="21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -3526,7 +3464,7 @@
       <c r="AC20" s="45"/>
       <c r="AD20" s="46"/>
       <c r="AF20" s="44" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG20" s="45"/>
       <c r="AH20" s="45"/>
@@ -3550,7 +3488,7 @@
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
       <c r="G21" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -3592,7 +3530,7 @@
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="G22" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -3614,7 +3552,7 @@
       <c r="AC22" s="45"/>
       <c r="AD22" s="46"/>
       <c r="AF22" s="44" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG22" s="45"/>
       <c r="AH22" s="45"/>
@@ -3676,7 +3614,7 @@
       <c r="D24" s="45"/>
       <c r="E24" s="46"/>
       <c r="G24" s="44" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
@@ -3718,7 +3656,7 @@
       <c r="D25" s="45"/>
       <c r="E25" s="46"/>
       <c r="G25" s="44" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
@@ -3760,7 +3698,7 @@
       <c r="D26" s="45"/>
       <c r="E26" s="46"/>
       <c r="G26" s="44" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
@@ -3802,7 +3740,7 @@
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="G27" s="44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
@@ -3844,7 +3782,7 @@
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
       <c r="G28" s="44" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
@@ -3886,7 +3824,7 @@
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
       <c r="G29" s="44" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
@@ -4212,7 +4150,7 @@
     </row>
     <row r="2" spans="1:40" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4313,7 +4251,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C4A29-D678-4CB9-9E6B-870912BAB499}">
-  <dimension ref="A1:AX25"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -4324,9 +4262,9 @@
     <col min="31" max="31" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="19.8">
+    <row r="1" spans="1:30" ht="19.8">
       <c r="A1" s="35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -4357,31 +4295,17 @@
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
       <c r="AD1" s="35"/>
-      <c r="AJ1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AT1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-    </row>
-    <row r="2" spans="1:50" ht="19.8">
+    </row>
+    <row r="2" spans="1:30" ht="19.8">
       <c r="A2" s="35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="48" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -4404,31 +4328,17 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="7"/>
-      <c r="AJ2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:30" ht="19.8">
+      <c r="A3" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="4"/>
-      <c r="AT2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="4"/>
-    </row>
-    <row r="3" spans="1:50" ht="19.8">
-      <c r="A3" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="48" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
@@ -4451,22 +4361,8 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="4"/>
-      <c r="AJ3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="4"/>
-      <c r="AT3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="4"/>
-    </row>
-    <row r="4" spans="1:50" ht="19.8">
+    </row>
+    <row r="4" spans="1:30" ht="19.8">
       <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
@@ -4498,20 +4394,8 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="4"/>
-      <c r="AJ4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="4"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="4"/>
-    </row>
-    <row r="5" spans="1:50" ht="19.8">
+    </row>
+    <row r="5" spans="1:30" ht="19.8">
       <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
@@ -4543,20 +4427,8 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="4"/>
-      <c r="AJ5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="4"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="4"/>
-    </row>
-    <row r="6" spans="1:50">
+    </row>
+    <row r="6" spans="1:30">
       <c r="Z6" s="2" t="s">
         <v>14</v>
       </c>
@@ -4564,20 +4436,8 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="4"/>
-      <c r="AJ6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="4"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="4"/>
-    </row>
-    <row r="7" spans="1:50">
+    </row>
+    <row r="7" spans="1:30">
       <c r="Z7" s="2" t="s">
         <v>15</v>
       </c>
@@ -4585,18 +4445,8 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="4"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="4"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="4"/>
-    </row>
-    <row r="8" spans="1:50">
+    </row>
+    <row r="8" spans="1:30">
       <c r="Z8" s="2" t="s">
         <v>16</v>
       </c>
@@ -4604,18 +4454,8 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="4"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="4"/>
-    </row>
-    <row r="9" spans="1:50">
+    </row>
+    <row r="9" spans="1:30">
       <c r="Z9" s="2" t="s">
         <v>17</v>
       </c>
@@ -4623,18 +4463,8 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="4"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="4"/>
-    </row>
-    <row r="10" spans="1:50">
+    </row>
+    <row r="10" spans="1:30">
       <c r="Z10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4642,18 +4472,8 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="4"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="4"/>
-    </row>
-    <row r="11" spans="1:50">
+    </row>
+    <row r="11" spans="1:30">
       <c r="Z11" s="2" t="s">
         <v>19</v>
       </c>
@@ -4661,46 +4481,36 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="4"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="4"/>
-    </row>
-    <row r="12" spans="1:50">
+    </row>
+    <row r="12" spans="1:30">
       <c r="Z12" s="2"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:30">
       <c r="Z13" s="2"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:30">
       <c r="Z14" s="2"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:30">
       <c r="Z15" s="2"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:30">
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -4780,7 +4590,8 @@
       <c r="AS25" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F4:T4"/>
     <mergeCell ref="F5:T5"/>
@@ -4791,9 +4602,6 @@
     <mergeCell ref="F1:T1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:T3"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
